--- a/state_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
+++ b/state_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U205"/>
+  <dimension ref="A1:U224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.475</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82383749557845</v>
+        <v>1.81872300772161</v>
       </c>
       <c r="H2" t="n">
         <v>10.5</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.01322</v>
+        <v>0.01364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0288940833495169</v>
+        <v>0.028919732795123</v>
       </c>
       <c r="H9" t="n">
         <v>0.247359917693933</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.01322</v>
+        <v>0.01364</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0288940833495169</v>
+        <v>0.028919732795123</v>
       </c>
       <c r="H10" t="n">
         <v>0.247359917693933</v>
@@ -1315,7 +1315,7 @@
         <v>0.58</v>
       </c>
       <c r="G11" t="n">
-        <v>0.595861959354813</v>
+        <v>0.59592708859653</v>
       </c>
       <c r="H11" t="n">
         <v>1.6</v>
@@ -1396,7 +1396,7 @@
         <v>0.58</v>
       </c>
       <c r="G12" t="n">
-        <v>0.595861959354813</v>
+        <v>0.59592708859653</v>
       </c>
       <c r="H12" t="n">
         <v>1.6</v>
@@ -1473,7 +1473,7 @@
         <v>0.4915</v>
       </c>
       <c r="G13" t="n">
-        <v>0.591647485635682</v>
+        <v>0.5916923555310381</v>
       </c>
       <c r="H13" t="n">
         <v>2.214</v>
@@ -1550,7 +1550,7 @@
         <v>0.4915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.591647485635682</v>
+        <v>0.5916923555310381</v>
       </c>
       <c r="H14" t="n">
         <v>2.214</v>
@@ -1939,7 +1939,7 @@
         <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.69598537285352</v>
+        <v>1.69077438522579</v>
       </c>
       <c r="H19" t="n">
         <v>10.5</v>
@@ -2522,7 +2522,7 @@
         <v>0.01448</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0401575685674513</v>
+        <v>0.0401788715679364</v>
       </c>
       <c r="H26" t="n">
         <v>0.55</v>
@@ -2603,7 +2603,7 @@
         <v>0.01448</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0401575685674513</v>
+        <v>0.0401788715679364</v>
       </c>
       <c r="H27" t="n">
         <v>0.55</v>
@@ -2684,7 +2684,7 @@
         <v>0.495</v>
       </c>
       <c r="G28" t="n">
-        <v>0.520200806670946</v>
+        <v>0.5202542126491549</v>
       </c>
       <c r="H28" t="n">
         <v>1.6</v>
@@ -2765,7 +2765,7 @@
         <v>0.495</v>
       </c>
       <c r="G29" t="n">
-        <v>0.520200806670946</v>
+        <v>0.5202542126491549</v>
       </c>
       <c r="H29" t="n">
         <v>1.6</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.517</v>
+        <v>0.5169</v>
       </c>
       <c r="G30" t="n">
-        <v>0.570031341324423</v>
+        <v>0.57004137850614</v>
       </c>
       <c r="H30" t="n">
         <v>1.749</v>
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.517</v>
+        <v>0.5169</v>
       </c>
       <c r="G31" t="n">
-        <v>0.570031341324423</v>
+        <v>0.57004137850614</v>
       </c>
       <c r="H31" t="n">
         <v>1.749</v>
@@ -3308,7 +3308,7 @@
         <v>1.3</v>
       </c>
       <c r="G36" t="n">
-        <v>1.60692876907993</v>
+        <v>1.60171778145221</v>
       </c>
       <c r="H36" t="n">
         <v>10.5</v>
@@ -3891,7 +3891,7 @@
         <v>0.01543</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0422177035495665</v>
+        <v>0.0422350785190275</v>
       </c>
       <c r="H43" t="n">
         <v>0.55</v>
@@ -3972,7 +3972,7 @@
         <v>0.01543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0422177035495665</v>
+        <v>0.0422350785190275</v>
       </c>
       <c r="H44" t="n">
         <v>0.55</v>
@@ -4053,7 +4053,7 @@
         <v>0.4589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.504334005559122</v>
+        <v>0.5043785105409621</v>
       </c>
       <c r="H45" t="n">
         <v>1.6</v>
@@ -4134,7 +4134,7 @@
         <v>0.4589</v>
       </c>
       <c r="G46" t="n">
-        <v>0.504334005559122</v>
+        <v>0.5043785105409621</v>
       </c>
       <c r="H46" t="n">
         <v>1.6</v>
@@ -4208,10 +4208,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.517</v>
+        <v>0.51675</v>
       </c>
       <c r="G47" t="n">
-        <v>0.555816666666667</v>
+        <v>0.555773333333333</v>
       </c>
       <c r="H47" t="n">
         <v>1.749</v>
@@ -4228,7 +4228,7 @@
         <v>1.0845</v>
       </c>
       <c r="N47" t="n">
-        <v>1.2879</v>
+        <v>1.28778</v>
       </c>
       <c r="O47" t="n">
         <v>1842194.8</v>
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.517</v>
+        <v>0.51675</v>
       </c>
       <c r="G48" t="n">
-        <v>0.555816666666667</v>
+        <v>0.555773333333333</v>
       </c>
       <c r="H48" t="n">
         <v>1.749</v>
@@ -4305,7 +4305,7 @@
         <v>1.0845</v>
       </c>
       <c r="N48" t="n">
-        <v>1.2879</v>
+        <v>1.28778</v>
       </c>
       <c r="O48" t="n">
         <v>1842194.8</v>
@@ -5260,7 +5260,7 @@
         <v>0.01894</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0454923608551433</v>
+        <v>0.0454981093860486</v>
       </c>
       <c r="H60" t="n">
         <v>0.55</v>
@@ -5341,7 +5341,7 @@
         <v>0.01894</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0454923608551433</v>
+        <v>0.0454981093860486</v>
       </c>
       <c r="H61" t="n">
         <v>0.55</v>
@@ -5422,7 +5422,7 @@
         <v>0.4506</v>
       </c>
       <c r="G62" t="n">
-        <v>0.520249252549706</v>
+        <v>0.5202764521497411</v>
       </c>
       <c r="H62" t="n">
         <v>1.6</v>
@@ -5503,7 +5503,7 @@
         <v>0.4506</v>
       </c>
       <c r="G63" t="n">
-        <v>0.520249252549706</v>
+        <v>0.5202764521497411</v>
       </c>
       <c r="H63" t="n">
         <v>1.6</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.5165</v>
+        <v>0.5163</v>
       </c>
       <c r="G64" t="n">
-        <v>0.578444208220795</v>
+        <v>0.578448423430222</v>
       </c>
       <c r="H64" t="n">
         <v>1.749</v>
@@ -5591,7 +5591,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0565</v>
+        <v>0.0563</v>
       </c>
       <c r="M64" t="n">
         <v>1.1086</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.5165</v>
+        <v>0.5163</v>
       </c>
       <c r="G65" t="n">
-        <v>0.578444208220795</v>
+        <v>0.578448423430222</v>
       </c>
       <c r="H65" t="n">
         <v>1.749</v>
@@ -5668,7 +5668,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0565</v>
+        <v>0.0563</v>
       </c>
       <c r="M65" t="n">
         <v>1.1086</v>
@@ -6706,7 +6706,7 @@
         <v>0.02242</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0448656683325761</v>
+        <v>0.0448782168152006</v>
       </c>
       <c r="H78" t="n">
         <v>0.55</v>
@@ -6787,7 +6787,7 @@
         <v>0.02242</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0448656683325761</v>
+        <v>0.0448782168152006</v>
       </c>
       <c r="H79" t="n">
         <v>0.55</v>
@@ -6868,7 +6868,7 @@
         <v>0.42025</v>
       </c>
       <c r="G80" t="n">
-        <v>0.528599252549706</v>
+        <v>0.528626452149741</v>
       </c>
       <c r="H80" t="n">
         <v>1.7</v>
@@ -6949,7 +6949,7 @@
         <v>0.42025</v>
       </c>
       <c r="G81" t="n">
-        <v>0.528599252549706</v>
+        <v>0.528626452149741</v>
       </c>
       <c r="H81" t="n">
         <v>1.7</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.5165</v>
+        <v>0.5163</v>
       </c>
       <c r="G82" t="n">
-        <v>0.589644208220795</v>
+        <v>0.5896484234302219</v>
       </c>
       <c r="H82" t="n">
         <v>1.72</v>
@@ -7040,7 +7040,7 @@
         <v>0.05</v>
       </c>
       <c r="M82" t="n">
-        <v>1.1236</v>
+        <v>1.12354</v>
       </c>
       <c r="N82" t="n">
         <v>1.444</v>
@@ -7100,10 +7100,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.5165</v>
+        <v>0.5163</v>
       </c>
       <c r="G83" t="n">
-        <v>0.589644208220795</v>
+        <v>0.5896484234302219</v>
       </c>
       <c r="H83" t="n">
         <v>1.72</v>
@@ -7117,7 +7117,7 @@
         <v>0.05</v>
       </c>
       <c r="M83" t="n">
-        <v>1.1236</v>
+        <v>1.12354</v>
       </c>
       <c r="N83" t="n">
         <v>1.444</v>
@@ -8152,7 +8152,7 @@
         <v>0.02227</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0378494423896077</v>
+        <v>0.0378636364860858</v>
       </c>
       <c r="H96" t="n">
         <v>0.55</v>
@@ -8233,7 +8233,7 @@
         <v>0.02227</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0378494423896077</v>
+        <v>0.0378636364860858</v>
       </c>
       <c r="H97" t="n">
         <v>0.55</v>
@@ -8314,7 +8314,7 @@
         <v>0.3599</v>
       </c>
       <c r="G98" t="n">
-        <v>0.536749252549706</v>
+        <v>0.536776452149741</v>
       </c>
       <c r="H98" t="n">
         <v>1.7</v>
@@ -8395,7 +8395,7 @@
         <v>0.3599</v>
       </c>
       <c r="G99" t="n">
-        <v>0.536749252549706</v>
+        <v>0.536776452149741</v>
       </c>
       <c r="H99" t="n">
         <v>1.7</v>
@@ -8469,10 +8469,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.461</v>
+        <v>0.46065</v>
       </c>
       <c r="G100" t="n">
-        <v>0.595660874887462</v>
+        <v>0.5956650900968889</v>
       </c>
       <c r="H100" t="n">
         <v>1.72</v>
@@ -8486,7 +8486,7 @@
         <v>0.05</v>
       </c>
       <c r="M100" t="n">
-        <v>1.1908</v>
+        <v>1.19066</v>
       </c>
       <c r="N100" t="n">
         <v>1.444</v>
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.461</v>
+        <v>0.46065</v>
       </c>
       <c r="G101" t="n">
-        <v>0.595660874887462</v>
+        <v>0.5956650900968889</v>
       </c>
       <c r="H101" t="n">
         <v>1.72</v>
@@ -8563,7 +8563,7 @@
         <v>0.05</v>
       </c>
       <c r="M101" t="n">
-        <v>1.1908</v>
+        <v>1.19066</v>
       </c>
       <c r="N101" t="n">
         <v>1.444</v>
@@ -9675,7 +9675,7 @@
         <v>0.02466</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0292293372551759</v>
+        <v>0.0292467961869574</v>
       </c>
       <c r="H115" t="n">
         <v>0.154358391720709</v>
@@ -9686,7 +9686,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.00378</v>
+        <v>0.00389</v>
       </c>
       <c r="M115" t="n">
         <v>0.04656</v>
@@ -9756,7 +9756,7 @@
         <v>0.02466</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0292293372551759</v>
+        <v>0.0292467961869574</v>
       </c>
       <c r="H116" t="n">
         <v>0.154358391720709</v>
@@ -9767,7 +9767,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00378</v>
+        <v>0.00389</v>
       </c>
       <c r="M116" t="n">
         <v>0.04656</v>
@@ -9837,7 +9837,7 @@
         <v>0.4589</v>
       </c>
       <c r="G117" t="n">
-        <v>0.558904252549706</v>
+        <v>0.558931452149741</v>
       </c>
       <c r="H117" t="n">
         <v>1.7</v>
@@ -9918,7 +9918,7 @@
         <v>0.4589</v>
       </c>
       <c r="G118" t="n">
-        <v>0.558904252549706</v>
+        <v>0.558931452149741</v>
       </c>
       <c r="H118" t="n">
         <v>1.7</v>
@@ -10069,10 +10069,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.553</v>
+        <v>0.5528999999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>0.623077541554129</v>
+        <v>0.623093423430222</v>
       </c>
       <c r="H120" t="n">
         <v>1.72</v>
@@ -10086,7 +10086,7 @@
         <v>0.105</v>
       </c>
       <c r="M120" t="n">
-        <v>1.1061</v>
+        <v>1.10639</v>
       </c>
       <c r="N120" t="n">
         <v>1.444</v>
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.553</v>
+        <v>0.5528999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>0.623077541554129</v>
+        <v>0.623093423430222</v>
       </c>
       <c r="H121" t="n">
         <v>1.72</v>
@@ -10163,7 +10163,7 @@
         <v>0.105</v>
       </c>
       <c r="M121" t="n">
-        <v>1.1061</v>
+        <v>1.10639</v>
       </c>
       <c r="N121" t="n">
         <v>1.444</v>
@@ -11275,7 +11275,7 @@
         <v>0.02391</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0320322700272609</v>
+        <v>0.0320555744385005</v>
       </c>
       <c r="H135" t="n">
         <v>0.154358391720709</v>
@@ -11286,7 +11286,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>0.00543</v>
+        <v>0.00555</v>
       </c>
       <c r="M135" t="n">
         <v>0.06673999999999999</v>
@@ -11356,7 +11356,7 @@
         <v>0.02391</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0320322700272609</v>
+        <v>0.0320555744385005</v>
       </c>
       <c r="H136" t="n">
         <v>0.154358391720709</v>
@@ -11367,7 +11367,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.00543</v>
+        <v>0.00555</v>
       </c>
       <c r="M136" t="n">
         <v>0.06673999999999999</v>
@@ -11437,7 +11437,7 @@
         <v>0.492</v>
       </c>
       <c r="G137" t="n">
-        <v>0.5593209192163729</v>
+        <v>0.559348118816407</v>
       </c>
       <c r="H137" t="n">
         <v>1.7</v>
@@ -11518,7 +11518,7 @@
         <v>0.492</v>
       </c>
       <c r="G138" t="n">
-        <v>0.5593209192163729</v>
+        <v>0.559348118816407</v>
       </c>
       <c r="H138" t="n">
         <v>1.7</v>
@@ -11672,7 +11672,7 @@
         <v>0.6</v>
       </c>
       <c r="G140" t="n">
-        <v>0.627244208220795</v>
+        <v>0.627283423430222</v>
       </c>
       <c r="H140" t="n">
         <v>1.72</v>
@@ -11686,7 +11686,7 @@
         <v>0.105</v>
       </c>
       <c r="M140" t="n">
-        <v>1.0929</v>
+        <v>1.09325</v>
       </c>
       <c r="N140" t="n">
         <v>1.444</v>
@@ -11749,7 +11749,7 @@
         <v>0.6</v>
       </c>
       <c r="G141" t="n">
-        <v>0.627244208220795</v>
+        <v>0.627283423430222</v>
       </c>
       <c r="H141" t="n">
         <v>1.72</v>
@@ -11763,7 +11763,7 @@
         <v>0.105</v>
       </c>
       <c r="M141" t="n">
-        <v>1.0929</v>
+        <v>1.09325</v>
       </c>
       <c r="N141" t="n">
         <v>1.444</v>
@@ -12875,7 +12875,7 @@
         <v>0.02708</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0337034659767856</v>
+        <v>0.0337217030503563</v>
       </c>
       <c r="H155" t="n">
         <v>0.154358391720709</v>
@@ -12956,7 +12956,7 @@
         <v>0.02708</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0337034659767856</v>
+        <v>0.0337217030503563</v>
       </c>
       <c r="H156" t="n">
         <v>0.154358391720709</v>
@@ -14475,7 +14475,7 @@
         <v>0.02878</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0356172155843158</v>
+        <v>0.03562762677938</v>
       </c>
       <c r="H175" t="n">
         <v>0.17671313677685</v>
@@ -14556,7 +14556,7 @@
         <v>0.02878</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0356172155843158</v>
+        <v>0.03562762677938</v>
       </c>
       <c r="H176" t="n">
         <v>0.17671313677685</v>
@@ -16075,7 +16075,7 @@
         <v>0.03275</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0396161991475937</v>
+        <v>0.0396247432038625</v>
       </c>
       <c r="H195" t="n">
         <v>0.17671313677685</v>
@@ -16156,7 +16156,7 @@
         <v>0.03275</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0396161991475937</v>
+        <v>0.0396247432038625</v>
       </c>
       <c r="H196" t="n">
         <v>0.17671313677685</v>
@@ -16908,6 +16908,1525 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.4266</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.53235</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.0333559322033898</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.07235</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.04547</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.06012</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0333559322033898</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.07235</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.04547</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.06012</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>420</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1947.31091238693</v>
+      </c>
+      <c r="H209" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I209" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J209" t="n">
+        <v>44.0677966101695</v>
+      </c>
+      <c r="K209" t="n">
+        <v>72.88135593220341</v>
+      </c>
+      <c r="L209" t="n">
+        <v>592</v>
+      </c>
+      <c r="M209" t="n">
+        <v>3062.34</v>
+      </c>
+      <c r="N209" t="n">
+        <v>9073.879999999999</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>420</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1947.31091238693</v>
+      </c>
+      <c r="H210" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I210" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J210" t="n">
+        <v>44.0677966101695</v>
+      </c>
+      <c r="K210" t="n">
+        <v>72.88135593220341</v>
+      </c>
+      <c r="L210" t="n">
+        <v>592</v>
+      </c>
+      <c r="M210" t="n">
+        <v>3062.34</v>
+      </c>
+      <c r="N210" t="n">
+        <v>9073.879999999999</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>420</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1947.31091238693</v>
+      </c>
+      <c r="H211" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I211" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J211" t="n">
+        <v>44.0677966101695</v>
+      </c>
+      <c r="K211" t="n">
+        <v>72.88135593220341</v>
+      </c>
+      <c r="L211" t="n">
+        <v>592</v>
+      </c>
+      <c r="M211" t="n">
+        <v>3062.34</v>
+      </c>
+      <c r="N211" t="n">
+        <v>9073.879999999999</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>420</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1947.31091238693</v>
+      </c>
+      <c r="H212" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I212" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J212" t="n">
+        <v>44.0677966101695</v>
+      </c>
+      <c r="K212" t="n">
+        <v>72.88135593220341</v>
+      </c>
+      <c r="L212" t="n">
+        <v>592</v>
+      </c>
+      <c r="M212" t="n">
+        <v>3062.34</v>
+      </c>
+      <c r="N212" t="n">
+        <v>9073.879999999999</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>107.27</v>
+      </c>
+      <c r="G213" t="n">
+        <v>109.988</v>
+      </c>
+      <c r="H213" t="n">
+        <v>126.67</v>
+      </c>
+      <c r="I213" t="n">
+        <v>126.67</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>107.27</v>
+      </c>
+      <c r="M213" t="n">
+        <v>124.6855</v>
+      </c>
+      <c r="N213" t="n">
+        <v>126.67</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.048521321816706</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.309482048166445</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.11325</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.02749</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.07431</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.09335</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.048521321816706</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.309482048166445</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.11325</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.02749</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.07431</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.09335</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.480829273114289</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.5075</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.7944099999999999</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1.0278</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.480829273114289</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.5075</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.7944099999999999</v>
+      </c>
+      <c r="N217" t="n">
+        <v>1.0278</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G218" t="n">
+        <v>6.1312</v>
+      </c>
+      <c r="H218" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I218" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="M218" t="n">
+        <v>6.9781</v>
+      </c>
+      <c r="N218" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.579305084745763</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1.6278</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.95205</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1.12406</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.579305084745763</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.6278</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.95205</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1.12406</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.952033898305085</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.4105</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1.8656</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.952033898305085</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1.4105</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1.8656</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.102220338983051</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.15546</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.17658</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Mangaatua at d/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.102220338983051</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.15546</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.17658</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1842194.8</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5530097.413</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
+++ b/state_results/Rivers/MangaatuaatdsWoodvilleSTP_95cf3dddd1.xlsx
@@ -570,7 +570,7 @@
         <v>1.475</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81872300772161</v>
+        <v>1.8540736750917</v>
       </c>
       <c r="H2" t="n">
         <v>10.5</v>
@@ -1939,7 +1939,7 @@
         <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.69077438522579</v>
+        <v>1.72679204631985</v>
       </c>
       <c r="H19" t="n">
         <v>10.5</v>
@@ -3308,7 +3308,7 @@
         <v>1.3</v>
       </c>
       <c r="G36" t="n">
-        <v>1.60171778145221</v>
+        <v>1.63773544254626</v>
       </c>
       <c r="H36" t="n">
         <v>10.5</v>
@@ -17177,7 +17177,7 @@
         <v>420</v>
       </c>
       <c r="G209" t="n">
-        <v>1947.31091238693</v>
+        <v>1878.14933710622</v>
       </c>
       <c r="H209" t="n">
         <v>16000</v>
@@ -17262,7 +17262,7 @@
         <v>420</v>
       </c>
       <c r="G210" t="n">
-        <v>1947.31091238693</v>
+        <v>1878.14933710622</v>
       </c>
       <c r="H210" t="n">
         <v>16000</v>
@@ -17347,7 +17347,7 @@
         <v>420</v>
       </c>
       <c r="G211" t="n">
-        <v>1947.31091238693</v>
+        <v>1878.14933710622</v>
       </c>
       <c r="H211" t="n">
         <v>16000</v>
@@ -17432,7 +17432,7 @@
         <v>420</v>
       </c>
       <c r="G212" t="n">
-        <v>1947.31091238693</v>
+        <v>1878.14933710622</v>
       </c>
       <c r="H212" t="n">
         <v>16000</v>
